--- a/Excel/SampleData.xlsx
+++ b/Excel/SampleData.xlsx
@@ -625,7 +625,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
